--- a/src/assets/tempDoc/진행사항_190830v0.23.xlsx
+++ b/src/assets/tempDoc/진행사항_190830v0.23.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="393">
   <si>
     <t>대구분</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>p17-p18</t>
-  </si>
-  <si>
-    <t>Apply_MCG_Channel.html / Apply_MCG_Deal.html</t>
   </si>
   <si>
     <t>최종신청(신청자용)</t>
@@ -1063,10 +1060,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/admin/ifMgmt/acctList_EiGW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MCG 가상사용자 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1171,10 +1164,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Apply_The Final(Approver).html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>v</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1183,79 +1172,185 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>탭 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ifReg/regList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일이 두 개라서 어떻게 넣어야 할지 모르겠음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p49</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/eigw/svrListPopup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply_Virtual_User_Popup.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin_Virtual_User_List.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/mcg/virtualUserApplyPopup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/eai/queueListPopup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/mcg/chrgrListPopup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/mcg/chnlListPopup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/mcg/svrListPopup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/eigw/chrgrListPopup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/eigw/instListPopup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/eigw/eaiListPopup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply_The Final(Applicant).html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Apply_Interface.html / Apply_Change_Info_Interface.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>/ifReg/regStep2-EiGW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ifReg/regStep2-EAI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ifReg/regStep3Apply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ifReg/regStep3Approve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/ifMgmt/acctList-EiGW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/ifMgmt/instList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/ifMgmt/virtualUserList-MCG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ifReg/regStep2-MCG(예정x url 없을거)
+(아래 임시)
+/ifReg/regStep2ApplyCh-MCG
+/ifReg/regStep2ApplyDeal-MCG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ifReg/regStep1 (예정x url 없을거)
+(아래는 임시)
+/ifReg/regStep1applyIf
+/ifReg/regStep1applyChgIf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply_MCG_Channel.html / Apply_MCG_Deal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2뎁스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>탭 구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/ifReg/regList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ifReg/regStep1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ifReg/regStep2_EAI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ifReg/regStep2_EiGW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ifReg/regStep2_MCG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ifReg/regStep3_APPLY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ifReg/regStep3_APPROVE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일이 두 개라서 어떻게 넣어야 할지 모르겠음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p49</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/meta/eigw/svrListPopup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apply_Virtual_User_Popup.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admin_Virtual_User_List.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/ifMgmt/virtualUserList_MCG</t>
+    <t>인터페이스관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 I/F 정보(Admin)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영자(EiGW)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자만 사용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin_Info_EiGW_Meta_Realtime.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/eigw/onlineListadmin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1263,35 +1358,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/meta/mcg/virtualUserApplyPopup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/meta/eai/queueListPopup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/meta/mcg/chrgrListPopup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/meta/mcg/chnlListPopup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/meta/mcg/svrListPopup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/meta/eigw/chrgrListPopup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/meta/eigw/instListPopup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/meta/eigw/eaiListPopup</t>
+    <t>v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 I/F 정보(Admin)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영자(EiGW)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자만 사용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin_Info_EiGW_Meta.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/meta/eigw/fileListadmin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIGW 인터페이스 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1299,7 +1394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1384,6 +1479,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1429,7 +1531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1643,13 +1745,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1804,6 +1928,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2091,12 +2227,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2124,25 +2260,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>3</v>
@@ -2163,19 +2299,19 @@
         <v>8</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q1" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R1" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="T1" s="49" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
@@ -2187,7 +2323,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -2203,7 +2339,7 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>12</v>
@@ -2220,43 +2356,43 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R2" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="49"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
-        <f t="shared" ref="A3:A39" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A41" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -2275,13 +2411,13 @@
         <v>18</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="49"/>
@@ -2295,23 +2431,23 @@
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
@@ -2330,13 +2466,13 @@
         <v>23</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="49"/>
@@ -2350,23 +2486,23 @@
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>287</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>288</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
@@ -2383,13 +2519,13 @@
         <v>26</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R5" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="49"/>
@@ -2403,23 +2539,23 @@
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>145</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
@@ -2434,15 +2570,15 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R6" s="46"/>
       <c r="S6" s="5"/>
       <c r="T6" s="49" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
@@ -2454,23 +2590,23 @@
         <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
@@ -2490,10 +2626,10 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R7" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="49"/>
@@ -2507,23 +2643,23 @@
         <v>30</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>35</v>
@@ -2542,13 +2678,13 @@
         <v>37</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R8" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="49"/>
@@ -2562,23 +2698,23 @@
         <v>30</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>39</v>
@@ -2599,15 +2735,17 @@
         <v>42</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R9" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="S9" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="T9" s="49"/>
     </row>
     <row r="10" spans="1:20" ht="31.2" x14ac:dyDescent="0.4">
@@ -2619,23 +2757,23 @@
         <v>30</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
@@ -2656,15 +2794,17 @@
         <v>46</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R10" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="S10" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="T10" s="49"/>
     </row>
     <row r="11" spans="1:20" ht="31.2" x14ac:dyDescent="0.4">
@@ -2676,23 +2816,23 @@
         <v>30</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>48</v>
@@ -2713,13 +2853,13 @@
         <v>51</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R11" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="49"/>
@@ -2733,23 +2873,23 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>53</v>
@@ -2770,13 +2910,13 @@
         <v>55</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="49"/>
@@ -2790,23 +2930,23 @@
         <v>56</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>151</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>58</v>
@@ -2822,19 +2962,19 @@
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="49"/>
     </row>
-    <row r="14" spans="1:20" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2843,23 +2983,23 @@
         <v>56</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>60</v>
@@ -2875,16 +3015,20 @@
         <v>5</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P14" s="1"/>
+        <v>361</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="Q14" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="R14" s="46"/>
+        <v>371</v>
+      </c>
+      <c r="R14" s="46" t="s">
+        <v>369</v>
+      </c>
       <c r="S14" s="5"/>
       <c r="T14" s="50" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
@@ -2896,23 +3040,23 @@
         <v>56</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>63</v>
@@ -2928,14 +3072,14 @@
         <v>4</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="14" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="49"/>
@@ -2949,23 +3093,23 @@
         <v>56</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>65</v>
@@ -2977,7 +3121,7 @@
         <v>40</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N16" s="1">
         <v>4</v>
@@ -2986,18 +3130,20 @@
         <v>66</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="S16" s="5"/>
+        <v>333</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="T16" s="51"/>
     </row>
-    <row r="17" spans="1:20" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3006,23 +3152,23 @@
         <v>56</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>68</v>
@@ -3038,16 +3184,20 @@
         <v>4</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" s="1"/>
+        <v>372</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="Q17" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="R17" s="46"/>
+        <v>370</v>
+      </c>
+      <c r="R17" s="46" t="s">
+        <v>351</v>
+      </c>
       <c r="S17" s="5"/>
       <c r="T17" s="50" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.4">
@@ -3059,26 +3209,26 @@
         <v>56</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -3089,13 +3239,15 @@
         <v>5</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="R18" s="46"/>
+        <v>364</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>351</v>
+      </c>
       <c r="S18" s="5"/>
       <c r="T18" s="49"/>
     </row>
@@ -3108,45 +3260,47 @@
         <v>56</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N19" s="1">
         <v>5</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="R19" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="R19" s="46"/>
       <c r="S19" s="5"/>
       <c r="T19" s="49"/>
     </row>
@@ -3156,29 +3310,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -3187,22 +3341,24 @@
         <v>40</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N20" s="1">
         <v>7</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="14" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="R20" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="S20" s="5"/>
+        <v>335</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="T20" s="49"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.4">
@@ -3211,29 +3367,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -3242,22 +3398,24 @@
         <v>40</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N21" s="1">
         <v>7</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="14" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="S21" s="5"/>
+        <v>333</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="T21" s="49"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
@@ -3266,29 +3424,29 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -3297,22 +3455,24 @@
         <v>40</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N22" s="1">
         <v>7</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="14" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="S22" s="5"/>
+        <v>335</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="T22" s="49"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.4">
@@ -3321,53 +3481,55 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="E23" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="F23" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="G23" s="38" t="s">
         <v>322</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>324</v>
       </c>
       <c r="H23" s="38"/>
       <c r="I23" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K23" s="38">
         <v>1</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N23" s="38">
         <v>8</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="33" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="R23" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="S23" s="39"/>
+        <v>333</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>351</v>
+      </c>
       <c r="T23" s="49"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
@@ -3376,29 +3538,29 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="1">
         <v>1</v>
@@ -3407,20 +3569,20 @@
         <v>49</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N24" s="1">
         <v>8</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="14" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S24" s="5"/>
       <c r="T24" s="49"/>
@@ -3431,29 +3593,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -3462,20 +3624,20 @@
         <v>49</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N25" s="1">
         <v>8</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="14" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S25" s="5"/>
       <c r="T25" s="49"/>
@@ -3486,29 +3648,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -3517,20 +3679,20 @@
         <v>49</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N26" s="1">
         <v>8</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="14" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="49"/>
@@ -3541,29 +3703,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K27" s="38">
         <v>1</v>
@@ -3572,19 +3734,21 @@
         <v>49</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N27" s="38">
         <v>8</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="P27" s="38"/>
       <c r="Q27" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="R27" s="47"/>
+        <v>352</v>
+      </c>
+      <c r="R27" s="47" t="s">
+        <v>351</v>
+      </c>
       <c r="S27" s="39"/>
       <c r="T27" s="49"/>
     </row>
@@ -3594,29 +3758,29 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -3625,20 +3789,20 @@
         <v>36</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N28" s="1">
         <v>8</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="14" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="49"/>
@@ -3649,29 +3813,29 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -3680,20 +3844,20 @@
         <v>36</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N29" s="1">
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="49"/>
@@ -3704,29 +3868,29 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -3735,20 +3899,20 @@
         <v>36</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N30" s="1">
         <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="49"/>
@@ -3759,29 +3923,29 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
@@ -3790,20 +3954,20 @@
         <v>36</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N31" s="1">
         <v>6</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S31" s="5"/>
       <c r="T31" s="49"/>
@@ -3814,29 +3978,29 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
@@ -3845,20 +4009,20 @@
         <v>36</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N32" s="1">
         <v>6</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R32" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="49"/>
@@ -3869,29 +4033,29 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K33" s="1">
         <v>1</v>
@@ -3900,20 +4064,20 @@
         <v>36</v>
       </c>
       <c r="M33" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N33" s="1">
         <v>10</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R33" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="49"/>
@@ -3924,53 +4088,55 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="E34" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="G34" s="38" t="s">
         <v>316</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>318</v>
       </c>
       <c r="H34" s="38"/>
       <c r="I34" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J34" s="38" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="K34" s="38">
         <v>1</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N34" s="38">
         <v>10</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P34" s="38"/>
       <c r="Q34" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R34" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="S34" s="39"/>
+        <v>333</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>351</v>
+      </c>
       <c r="T34" s="49"/>
     </row>
     <row r="35" spans="1:20" ht="46.8" x14ac:dyDescent="0.4">
@@ -3979,29 +4145,29 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
@@ -4010,20 +4176,20 @@
         <v>13</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N35" s="1">
         <v>9</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R35" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="49"/>
@@ -4034,29 +4200,29 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>222</v>
-      </c>
       <c r="F36" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
@@ -4065,20 +4231,20 @@
         <v>13</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="14" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="R36" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="49"/>
@@ -4089,51 +4255,51 @@
         <v>36</v>
       </c>
       <c r="B37" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="E37" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>222</v>
-      </c>
       <c r="F37" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="38"/>
       <c r="I37" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K37" s="38">
         <v>1</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M37" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="N37" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="N37" s="38" t="s">
-        <v>312</v>
-      </c>
       <c r="O37" s="38" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="P37" s="38"/>
       <c r="Q37" s="33" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="R37" s="47" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="S37" s="39"/>
       <c r="T37" s="49"/>
@@ -4143,30 +4309,30 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>222</v>
-      </c>
       <c r="F38" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
@@ -4175,20 +4341,20 @@
         <v>13</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="14" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
       <c r="R38" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="49"/>
@@ -4199,29 +4365,29 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>222</v>
-      </c>
       <c r="F39" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
@@ -4230,80 +4396,194 @@
         <v>13</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R39" s="46" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="S39" s="5"/>
       <c r="T39" s="49"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A42" s="32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A43" s="34">
+    <row r="40" spans="1:20" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A40" s="38">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="H40" s="38"/>
+      <c r="I40" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="J40" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="K40" s="38">
+        <v>1</v>
+      </c>
+      <c r="L40" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="M40" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="N40" s="38">
+        <v>10</v>
+      </c>
+      <c r="O40" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="R40" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="S40" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="T40" s="49"/>
+    </row>
+    <row r="41" spans="1:20" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A41" s="38">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="H41" s="38"/>
+      <c r="I41" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="K41" s="38">
+        <v>1</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="M41" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="N41" s="38">
+        <v>10</v>
+      </c>
+      <c r="O41" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="R41" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="S41" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="T41" s="49"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A44" s="32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A45" s="34">
         <v>23</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B45" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" s="35" t="s">
+      <c r="F45" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="G45" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="H45" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="G43" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="H43" s="35" t="s">
+      <c r="I45" s="35"/>
+      <c r="J45" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A46" s="36">
+        <v>24</v>
+      </c>
+      <c r="B46" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A44" s="36">
-        <v>24</v>
-      </c>
-      <c r="B44" s="37" t="s">
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37" t="s">
+      <c r="F46" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="G46" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="G44" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T39"/>
@@ -4338,31 +4618,31 @@
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -4371,22 +4651,22 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>147</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -4396,31 +4676,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -4428,29 +4708,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -4461,18 +4741,18 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>165</v>
-      </c>
       <c r="J5" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4483,20 +4763,20 @@
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>167</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="J6" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4504,27 +4784,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>172</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>175</v>
-      </c>
       <c r="J7" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -4532,25 +4812,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>178</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -4558,23 +4838,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -4582,23 +4862,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -4606,23 +4886,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -4630,23 +4910,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4654,29 +4934,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="J13" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4684,27 +4964,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F14" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="J14" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4712,22 +4992,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>206</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>207</v>
       </c>
       <c r="J15" s="14"/>
     </row>
@@ -4736,22 +5016,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>210</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="J16" s="14"/>
     </row>
@@ -4760,27 +5040,27 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>214</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>215</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>217</v>
-      </c>
       <c r="J17" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -4788,21 +5068,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4810,29 +5090,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="F19" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="G19" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="H19" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4840,25 +5120,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>229</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4866,25 +5146,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="G21" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="H21" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="62.4" x14ac:dyDescent="0.4">
@@ -4892,25 +5172,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4918,27 +5198,27 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="G23" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4946,25 +5226,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="G24" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>248</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
@@ -4972,21 +5252,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="G25" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>252</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -4996,7 +5276,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>10</v>
@@ -5008,19 +5288,19 @@
         <v>10</v>
       </c>
       <c r="F26" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="I26" s="14" t="s">
-        <v>256</v>
-      </c>
       <c r="J26" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
@@ -5028,21 +5308,21 @@
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
